--- a/Planilha primeiro trabalho.xlsx
+++ b/Planilha primeiro trabalho.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Lab de programação paralela\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\OneDrive\Área de Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Caso Naive</t>
   </si>
@@ -54,12 +54,49 @@
   </si>
   <si>
     <t>Caso Base</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>Tempo (ms)</t>
+  </si>
+  <si>
+    <t>Speed up</t>
+  </si>
+  <si>
+    <t>Eficiência</t>
+  </si>
+  <si>
+    <t>num Procs</t>
+  </si>
+  <si>
+    <t>Sempre executando para n igual (10000000)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,7 +112,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +128,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -122,14 +165,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E8"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,41 +473,43 @@
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -463,45 +517,131 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2.2040000000000002</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1.198</v>
+      </c>
+      <c r="C14" s="1">
+        <f>B13/B14</f>
+        <v>1.8397328881469117</v>
+      </c>
+      <c r="D14" s="1">
+        <f>B13/(A14*B14)</f>
+        <v>0.91986644407345586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="C15" s="1">
+        <f>B14/B15</f>
+        <v>1.4845105328376702</v>
+      </c>
+      <c r="D15" s="1">
+        <f>B13/(A15*B15)</f>
+        <v>0.68277571251548952</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
